--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559EE610-B754-4460-BF9B-83E6385C664D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B84AD82-B876-44FE-9A64-FC3304653D75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AC0B7393-DB27-4425-8F19-4105E3B2BB55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{AC0B7393-DB27-4425-8F19-4105E3B2BB55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AD$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>convex</t>
   </si>
@@ -68,10 +69,169 @@
     <t>total time</t>
   </si>
   <si>
+    <t>ConvexEnvelope</t>
+  </si>
+  <si>
+    <t>Conjugate</t>
+  </si>
+  <si>
+    <t>MaxConjugate</t>
+  </si>
+  <si>
+    <t>i =</t>
+  </si>
+  <si>
     <t>avg time for 1 piece</t>
   </si>
   <si>
     <t>convex pieces</t>
+  </si>
+  <si>
+    <t>Elapsed time is 50.668552 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.784059 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.840294 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 49.533779 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.414662 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.571883 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 47.888817 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.428720 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.118866 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 49.495733 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.424558 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.762251 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 46.980817 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.404419 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.333340 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 46.564016 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.541538 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.828710 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 45.454916 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.210892 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.670841 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 48.061949 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.566132 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.382004 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 51.764901 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.548998 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.171466 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 45.292562 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.207824 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.956655 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 44.315621 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.040003 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.450847 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 45.102861 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.183316 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.658644 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 47.216566 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.394827 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.805068 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 46.282359 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.172468 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 9.016523 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 46.077919 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.428613 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.813388 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 47.084936 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 3.209623 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8.324950 seconds.</t>
+  </si>
+  <si>
+    <t>Elapsed time is 5875.575090 seconds.</t>
   </si>
 </sst>
 </file>
@@ -178,10 +338,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$5</c:f>
+              <c:f>Sheet1!$Y$3:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -191,15 +351,18 @@
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$5</c:f>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>146.12</c:v>
                 </c:pt>
@@ -209,13 +372,16 @@
                 <c:pt idx="2">
                   <c:v>2205</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6803</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43F9-4B85-9A18-522C30FD77DC}"/>
+              <c16:uniqueId val="{00000000-DBBA-4AE9-A85F-64825E2CB804}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -251,10 +417,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$5</c:f>
+              <c:f>Sheet1!$AA$3:$AA$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -262,17 +428,20 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$5</c:f>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>146.12</c:v>
                 </c:pt>
@@ -282,13 +451,16 @@
                 <c:pt idx="2">
                   <c:v>2205</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6803</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43F9-4B85-9A18-522C30FD77DC}"/>
+              <c16:uniqueId val="{00000001-DBBA-4AE9-A85F-64825E2CB804}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -471,11 +643,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1035,31 +1202,34 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0CCB5BC5-A31A-4D10-AC1A-DA855326C949}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC4FA35-C4F5-4D09-BEAD-233F1740FED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9699800-52E3-4187-A5B3-A77D4CB5E40C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1072,7 +1242,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1373,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B32837-D40F-4F11-B94C-401A77BF308E}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="AB2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="s">
         <v>11</v>
@@ -1459,7 +1629,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1633,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="AA5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AB5">
         <v>60.42</v>
@@ -1706,6 +1876,18 @@
       <c r="W6">
         <f t="shared" si="3"/>
         <v>8.8360701111111091</v>
+      </c>
+      <c r="Y6">
+        <v>16</v>
+      </c>
+      <c r="Z6">
+        <v>25</v>
+      </c>
+      <c r="AA6">
+        <v>40</v>
+      </c>
+      <c r="AD6">
+        <v>6803</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1753,6 +1935,12 @@
         <v>2205.1025279999999</v>
       </c>
     </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <f>58*16+AD6</f>
+        <v>7731</v>
+      </c>
+    </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
@@ -1781,8 +1969,652 @@
         <v>32</v>
       </c>
     </row>
+    <row r="32" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y146" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y159" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y161" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y168" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="169" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y172" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y179" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y201" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y205" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="25:25" x14ac:dyDescent="0.25">
+      <c r="Y207" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>